--- a/data/raw-data/exampledata.xlsx
+++ b/data/raw-data/exampledata.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B0400-91DC-4479-905F-9A91D902E8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexisgonzalez/Desktop/MADA/group3-data-analysis/data/raw-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="945" windowWidth="48840" windowHeight="21645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="760" windowWidth="30240" windowHeight="17900"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Codebook" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Height</t>
   </si>
@@ -29,9 +39,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>sixty</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -72,12 +79,42 @@
   </si>
   <si>
     <t>identified gender (male/female/other)</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Blonde</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Thumb Length</t>
+  </si>
+  <si>
+    <t>Hair color</t>
+  </si>
+  <si>
+    <t>Color of natural unaltered hair</t>
+  </si>
+  <si>
+    <t>Brown,Blonde,Red</t>
+  </si>
+  <si>
+    <t>Thumb length</t>
+  </si>
+  <si>
+    <t>length in cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,16 +434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,10 +451,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>180</v>
       </c>
@@ -425,10 +468,16 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>175</v>
       </c>
@@ -436,21 +485,33 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>60</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>178</v>
       </c>
@@ -458,10 +519,16 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>192</v>
       </c>
@@ -469,10 +536,16 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -480,10 +553,16 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>156</v>
       </c>
@@ -491,10 +570,16 @@
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>166</v>
       </c>
@@ -502,10 +587,16 @@
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>155</v>
       </c>
@@ -513,10 +604,16 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>145</v>
       </c>
@@ -524,18 +621,30 @@
         <v>7000</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>133</v>
       </c>
@@ -543,10 +652,16 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>166</v>
       </c>
@@ -554,10 +669,16 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>154</v>
       </c>
@@ -565,7 +686,13 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -574,62 +701,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
